--- a/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Itga5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Itga5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H2">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I2">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J2">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N2">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O2">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P2">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q2">
-        <v>205.2115990390492</v>
+        <v>281.2152725015627</v>
       </c>
       <c r="R2">
-        <v>205.2115990390492</v>
+        <v>2530.937452514064</v>
       </c>
       <c r="S2">
-        <v>0.05179667714119302</v>
+        <v>0.05781363709083445</v>
       </c>
       <c r="T2">
-        <v>0.05179667714119302</v>
+        <v>0.06804287838816518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H3">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I3">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J3">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N3">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P3">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q3">
-        <v>369.0676336428642</v>
+        <v>433.3139305223858</v>
       </c>
       <c r="R3">
-        <v>369.0676336428642</v>
+        <v>3899.825374701472</v>
       </c>
       <c r="S3">
-        <v>0.09315495397229431</v>
+        <v>0.08908283715453276</v>
       </c>
       <c r="T3">
-        <v>0.09315495397229431</v>
+        <v>0.1048446864786432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H4">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I4">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J4">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N4">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O4">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P4">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q4">
-        <v>162.6391698781194</v>
+        <v>187.9302138298782</v>
       </c>
       <c r="R4">
-        <v>162.6391698781194</v>
+        <v>1691.371924468904</v>
       </c>
       <c r="S4">
-        <v>0.04105113264618917</v>
+        <v>0.03863562986502847</v>
       </c>
       <c r="T4">
-        <v>0.04105113264618917</v>
+        <v>0.04547161529079905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H5">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I5">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J5">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N5">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O5">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P5">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q5">
-        <v>267.7822128670451</v>
+        <v>317.6312751333085</v>
       </c>
       <c r="R5">
-        <v>267.7822128670451</v>
+        <v>2858.681476199776</v>
       </c>
       <c r="S5">
-        <v>0.06758988716514619</v>
+        <v>0.06530022038242619</v>
       </c>
       <c r="T5">
-        <v>0.06758988716514619</v>
+        <v>0.07685409840624301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H6">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I6">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J6">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N6">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O6">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P6">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q6">
-        <v>81.18097104168963</v>
+        <v>109.028434958932</v>
       </c>
       <c r="R6">
-        <v>81.18097104168963</v>
+        <v>654.1706097535921</v>
       </c>
       <c r="S6">
-        <v>0.02049057931786203</v>
+        <v>0.0224146089763397</v>
       </c>
       <c r="T6">
-        <v>0.02049057931786203</v>
+        <v>0.01758702144154555</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H7">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I7">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J7">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N7">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O7">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P7">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q7">
-        <v>7.984333653605055</v>
+        <v>11.10415706885467</v>
       </c>
       <c r="R7">
-        <v>7.984333653605055</v>
+        <v>99.93741361969199</v>
       </c>
       <c r="S7">
-        <v>0.002015295209334866</v>
+        <v>0.002282847945162083</v>
       </c>
       <c r="T7">
-        <v>0.002015295209334866</v>
+        <v>0.002686763070575992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H8">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I8">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J8">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N8">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P8">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q8">
-        <v>14.35961291442581</v>
+        <v>17.10997379993511</v>
       </c>
       <c r="R8">
-        <v>14.35961291442581</v>
+        <v>153.989764199416</v>
       </c>
       <c r="S8">
-        <v>0.003624455135498882</v>
+        <v>0.003517553677308324</v>
       </c>
       <c r="T8">
-        <v>0.003624455135498882</v>
+        <v>0.004139931150031006</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H9">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I9">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J9">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N9">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O9">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P9">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q9">
-        <v>6.32793372076964</v>
+        <v>7.420673115606887</v>
       </c>
       <c r="R9">
-        <v>6.32793372076964</v>
+        <v>66.78605804046198</v>
       </c>
       <c r="S9">
-        <v>0.001597209618951429</v>
+        <v>0.001525578958280171</v>
       </c>
       <c r="T9">
-        <v>0.001597209618951429</v>
+        <v>0.001795506886493017</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H10">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I10">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J10">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N10">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O10">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P10">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q10">
-        <v>10.41881913129255</v>
+        <v>12.54209110936978</v>
       </c>
       <c r="R10">
-        <v>10.41881913129255</v>
+        <v>112.878819984328</v>
       </c>
       <c r="S10">
-        <v>0.002629774404873452</v>
+        <v>0.002578465590816217</v>
       </c>
       <c r="T10">
-        <v>0.002629774404873452</v>
+        <v>0.003034685749805403</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H11">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I11">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J11">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N11">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O11">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P11">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q11">
-        <v>3.158573697372536</v>
+        <v>4.305131993671</v>
       </c>
       <c r="R11">
-        <v>3.158573697372536</v>
+        <v>25.830791962026</v>
       </c>
       <c r="S11">
-        <v>0.0007972435417665539</v>
+        <v>0.0008850704888684617</v>
       </c>
       <c r="T11">
-        <v>0.0007972435417665539</v>
+        <v>0.0006944468083935642</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H12">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I12">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J12">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N12">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O12">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P12">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q12">
-        <v>96.55317318618468</v>
+        <v>137.4964437166246</v>
       </c>
       <c r="R12">
-        <v>96.55317318618468</v>
+        <v>1237.467993449622</v>
       </c>
       <c r="S12">
-        <v>0.02437061823942441</v>
+        <v>0.02826720408035132</v>
       </c>
       <c r="T12">
-        <v>0.02437061823942441</v>
+        <v>0.03326865470495918</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H13">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I13">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J13">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N13">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P13">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q13">
-        <v>173.6483284346612</v>
+        <v>211.8630468740618</v>
       </c>
       <c r="R13">
-        <v>173.6483284346612</v>
+        <v>1906.767421866556</v>
       </c>
       <c r="S13">
-        <v>0.04382991237413666</v>
+        <v>0.04355586094587871</v>
       </c>
       <c r="T13">
-        <v>0.04382991237413666</v>
+        <v>0.05126240621699455</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H14">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I14">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J14">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N14">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O14">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P14">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q14">
-        <v>76.52261377833338</v>
+        <v>91.88596280228519</v>
       </c>
       <c r="R14">
-        <v>76.52261377833338</v>
+        <v>826.9736652205669</v>
       </c>
       <c r="S14">
-        <v>0.01931478112561423</v>
+        <v>0.01889037412491069</v>
       </c>
       <c r="T14">
-        <v>0.01931478112561423</v>
+        <v>0.02223273770630867</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H15">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I15">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J15">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N15">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O15">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P15">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q15">
-        <v>125.9929872200433</v>
+        <v>155.3015608132164</v>
       </c>
       <c r="R15">
-        <v>125.9929872200433</v>
+        <v>1397.714047318948</v>
       </c>
       <c r="S15">
-        <v>0.03180140943129253</v>
+        <v>0.03192766878066893</v>
       </c>
       <c r="T15">
-        <v>0.03180140943129253</v>
+        <v>0.03757678280381164</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H16">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I16">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J16">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N16">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O16">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P16">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q16">
-        <v>38.19608829674084</v>
+        <v>53.3079940413235</v>
       </c>
       <c r="R16">
-        <v>38.19608829674084</v>
+        <v>319.847964247941</v>
       </c>
       <c r="S16">
-        <v>0.009640928986603315</v>
+        <v>0.0109593230628266</v>
       </c>
       <c r="T16">
-        <v>0.009640928986603315</v>
+        <v>0.008598938749911252</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H17">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I17">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J17">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N17">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O17">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P17">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q17">
-        <v>156.6049399530203</v>
+        <v>208.935606057266</v>
       </c>
       <c r="R17">
-        <v>156.6049399530203</v>
+        <v>1880.420454515394</v>
       </c>
       <c r="S17">
-        <v>0.03952805568226665</v>
+        <v>0.04295402307455119</v>
       </c>
       <c r="T17">
-        <v>0.03952805568226665</v>
+        <v>0.05055408231369488</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H18">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I18">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J18">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N18">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P18">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q18">
-        <v>281.6498427764108</v>
+        <v>321.9409382762013</v>
       </c>
       <c r="R18">
-        <v>281.6498427764108</v>
+        <v>2897.468444485812</v>
       </c>
       <c r="S18">
-        <v>0.07109016274650981</v>
+        <v>0.06618622240753161</v>
       </c>
       <c r="T18">
-        <v>0.07109016274650981</v>
+        <v>0.07789686497619944</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H19">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I19">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J19">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N19">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O19">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P19">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q19">
-        <v>124.1162660982205</v>
+        <v>139.6272427657676</v>
       </c>
       <c r="R19">
-        <v>124.1162660982205</v>
+        <v>1256.645184891909</v>
       </c>
       <c r="S19">
-        <v>0.03132771340978931</v>
+        <v>0.02870526436720847</v>
       </c>
       <c r="T19">
-        <v>0.03132771340978931</v>
+        <v>0.03378422307818701</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H20">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I20">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J20">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N20">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O20">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P20">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q20">
-        <v>204.3550050918448</v>
+        <v>235.9917453357773</v>
       </c>
       <c r="R20">
-        <v>204.3550050918448</v>
+        <v>2123.925708021996</v>
       </c>
       <c r="S20">
-        <v>0.05158046752959107</v>
+        <v>0.04851635901531427</v>
       </c>
       <c r="T20">
-        <v>0.05158046752959107</v>
+        <v>0.05710058876124487</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H21">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I21">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J21">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N21">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O21">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P21">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q21">
-        <v>61.9523514014064</v>
+        <v>81.0052808760345</v>
       </c>
       <c r="R21">
-        <v>61.9523514014064</v>
+        <v>486.031685256207</v>
       </c>
       <c r="S21">
-        <v>0.01563715676259491</v>
+        <v>0.01665346931320078</v>
       </c>
       <c r="T21">
-        <v>0.01563715676259491</v>
+        <v>0.01306669780394318</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H22">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I22">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J22">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N22">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O22">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P22">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q22">
-        <v>282.3659647187545</v>
+        <v>390.4101984510639</v>
       </c>
       <c r="R22">
-        <v>282.3659647187545</v>
+        <v>2342.461190706384</v>
       </c>
       <c r="S22">
-        <v>0.07127091635505338</v>
+        <v>0.08026247411468394</v>
       </c>
       <c r="T22">
-        <v>0.07127091635505338</v>
+        <v>0.06297579648596446</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H23">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I23">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J23">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N23">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P23">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q23">
-        <v>507.8277198171675</v>
+        <v>601.5682437941387</v>
       </c>
       <c r="R23">
-        <v>507.8277198171675</v>
+        <v>3609.409462764832</v>
       </c>
       <c r="S23">
-        <v>0.1281788581634354</v>
+        <v>0.1236733973326135</v>
       </c>
       <c r="T23">
-        <v>0.1281788581634354</v>
+        <v>0.09703701246510173</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H24">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I24">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J24">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N24">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O24">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P24">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q24">
-        <v>223.7873800445065</v>
+        <v>260.9028713967373</v>
       </c>
       <c r="R24">
-        <v>223.7873800445065</v>
+        <v>1565.417228380423</v>
       </c>
       <c r="S24">
-        <v>0.05648531918623691</v>
+        <v>0.05363771244964584</v>
       </c>
       <c r="T24">
-        <v>0.05648531918623691</v>
+        <v>0.04208539171587285</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H25">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I25">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J25">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N25">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O25">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P25">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q25">
-        <v>368.4615451797047</v>
+        <v>440.9664100244426</v>
       </c>
       <c r="R25">
-        <v>368.4615451797047</v>
+        <v>2645.798460146656</v>
       </c>
       <c r="S25">
-        <v>0.09300197349462012</v>
+        <v>0.09065607202489173</v>
       </c>
       <c r="T25">
-        <v>0.09300197349462012</v>
+        <v>0.07113085417599951</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H26">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I26">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J26">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N26">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O26">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P26">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q26">
-        <v>111.7029608089066</v>
+        <v>151.363802365638</v>
       </c>
       <c r="R26">
-        <v>111.7029608089066</v>
+        <v>605.455209462552</v>
       </c>
       <c r="S26">
-        <v>0.02819451835972146</v>
+        <v>0.03111812477612557</v>
       </c>
       <c r="T26">
-        <v>0.02819451835972146</v>
+        <v>0.01627733437111187</v>
       </c>
     </row>
   </sheetData>
